--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -63,13 +63,13 @@
     <t xml:space="preserve">Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
+    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
+  </si>
+  <si>
     <t>&lt;-&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum no. of Jumps to reach end of an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">find duplicate in an array of N+1 Integers</t>
   </si>
   <si>
     <t xml:space="preserve">Merge 2 sorted arrays without using Extra space.</t>
@@ -1448,7 +1448,6 @@
     <font>
       <name val="Calibri"/>
       <b/>
-      <color indexed="64"/>
       <sz val="15.000000"/>
       <scheme val="minor"/>
     </font>
@@ -1494,7 +1493,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1508,6 +1507,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,8 +2155,8 @@
       <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" ht="21">
@@ -2162,10 +2164,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" ht="21">
@@ -2173,10 +2175,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="21">
@@ -2187,7 +2189,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="21">
@@ -2198,7 +2200,7 @@
         <v>20</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="21">
@@ -2209,7 +2211,7 @@
         <v>21</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="21">
@@ -2220,7 +2222,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="21">
@@ -2231,7 +2233,7 @@
         <v>23</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="21">
@@ -2242,7 +2244,7 @@
         <v>24</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="21">
@@ -2253,7 +2255,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="21">
@@ -2264,7 +2266,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="21">
@@ -2275,7 +2277,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="21">
@@ -2286,7 +2288,7 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="21">
@@ -2297,7 +2299,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="21">
@@ -2308,7 +2310,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="21">
@@ -2319,7 +2321,7 @@
         <v>31</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="21">
@@ -2330,7 +2332,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="21">
@@ -2341,7 +2343,7 @@
         <v>33</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="21">
@@ -2352,7 +2354,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="21">
@@ -2363,7 +2365,7 @@
         <v>35</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="21">
@@ -2374,7 +2376,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="21">
@@ -2385,7 +2387,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="21">
@@ -2396,7 +2398,7 @@
         <v>38</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="21">
@@ -2407,7 +2409,7 @@
         <v>39</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="21">
@@ -2418,7 +2420,7 @@
         <v>40</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="21">
@@ -2429,7 +2431,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="21">
@@ -2440,7 +2442,7 @@
         <v>42</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="21">
@@ -2451,135 +2453,135 @@
         <v>43</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="21">
-      <c r="B42" s="8"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="21">
       <c r="A43" s="5"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="21">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="21">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="21">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="21">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="21">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="21">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="21">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="21">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="21">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="21">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="21">
       <c r="A55" s="5"/>
-      <c r="B55" s="8"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="7"/>
     </row>
     <row r="56" ht="21">
@@ -2590,7 +2592,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="21">
@@ -2601,7 +2603,7 @@
         <v>57</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="21">
@@ -2612,18 +2614,18 @@
         <v>58</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="21">
       <c r="A59" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="21">
@@ -2634,7 +2636,7 @@
         <v>60</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="21">
@@ -2645,7 +2647,7 @@
         <v>61</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="21">
@@ -2656,7 +2658,7 @@
         <v>62</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="21">
@@ -2667,7 +2669,7 @@
         <v>63</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="21">
@@ -2678,7 +2680,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="21">
@@ -2689,7 +2691,7 @@
         <v>65</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="21">
@@ -2700,7 +2702,7 @@
         <v>66</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="21">
@@ -2711,7 +2713,7 @@
         <v>67</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="21">
@@ -2722,7 +2724,7 @@
         <v>68</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="21">
@@ -2733,7 +2735,7 @@
         <v>69</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="21">
@@ -2744,7 +2746,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="21">
@@ -2755,7 +2757,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="21">
@@ -2766,7 +2768,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="21">
@@ -2777,7 +2779,7 @@
         <v>73</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="21">
@@ -2788,7 +2790,7 @@
         <v>74</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="21">
@@ -2799,7 +2801,7 @@
         <v>75</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="21">
@@ -2810,7 +2812,7 @@
         <v>76</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="21">
@@ -2821,7 +2823,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="21">
@@ -2832,7 +2834,7 @@
         <v>78</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="21">
@@ -2843,7 +2845,7 @@
         <v>79</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="21">
@@ -2854,7 +2856,7 @@
         <v>80</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="21">
@@ -2865,7 +2867,7 @@
         <v>81</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="21">
@@ -2876,7 +2878,7 @@
         <v>82</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="21">
@@ -2887,7 +2889,7 @@
         <v>83</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="21">
@@ -2898,7 +2900,7 @@
         <v>84</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="21">
@@ -2909,7 +2911,7 @@
         <v>85</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="21">
@@ -2920,7 +2922,7 @@
         <v>86</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="21">
@@ -2931,7 +2933,7 @@
         <v>87</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="21">
@@ -2942,7 +2944,7 @@
         <v>88</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="21">
@@ -2953,7 +2955,7 @@
         <v>89</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="21">
@@ -2964,7 +2966,7 @@
         <v>90</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="21">
@@ -2975,7 +2977,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="21">
@@ -2986,7 +2988,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="21">
@@ -2997,7 +2999,7 @@
         <v>93</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="21">
@@ -3008,7 +3010,7 @@
         <v>94</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="21">
@@ -3019,7 +3021,7 @@
         <v>95</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="21">
@@ -3030,7 +3032,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="21">
@@ -3041,7 +3043,7 @@
         <v>97</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="21">
@@ -3052,12 +3054,12 @@
         <v>98</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="21">
-      <c r="A100" s="9"/>
-      <c r="B100" s="8"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="7"/>
     </row>
     <row r="101" ht="21">
@@ -3068,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="21">
@@ -3079,7 +3081,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" ht="21">
@@ -3090,7 +3092,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="21">
@@ -3101,7 +3103,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" ht="21">
@@ -3112,7 +3114,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="21">
@@ -3123,7 +3125,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="21">
@@ -3134,7 +3136,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" ht="21">
@@ -3145,7 +3147,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="21">
@@ -3156,7 +3158,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="21">
@@ -3167,7 +3169,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" ht="21">
@@ -3178,7 +3180,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" ht="21">
@@ -3189,7 +3191,7 @@
         <v>111</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="21">
@@ -3200,7 +3202,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="114" ht="21">
@@ -3211,7 +3213,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="21">
@@ -3222,7 +3224,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" ht="21">
@@ -3233,7 +3235,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" ht="21">
@@ -3244,7 +3246,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" ht="21">
@@ -3255,7 +3257,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" ht="21">
@@ -3266,7 +3268,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" ht="21">
@@ -3277,7 +3279,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" ht="21">
@@ -3288,7 +3290,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122" ht="21">
@@ -3299,7 +3301,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123" ht="21">
@@ -3310,7 +3312,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" ht="21">
@@ -3321,7 +3323,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" ht="21">
@@ -3332,7 +3334,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" ht="21">
@@ -3343,7 +3345,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" ht="21">
@@ -3354,7 +3356,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" ht="21">
@@ -3365,7 +3367,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129" ht="21">
@@ -3376,7 +3378,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" ht="21">
@@ -3387,7 +3389,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" ht="21">
@@ -3398,7 +3400,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" ht="21">
@@ -3409,7 +3411,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" ht="21">
@@ -3420,7 +3422,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" ht="21">
@@ -3431,7 +3433,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" ht="21">
@@ -3442,7 +3444,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" ht="21">
@@ -3453,411 +3455,411 @@
         <v>135</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138" ht="21">
-      <c r="B138" s="8"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="7"/>
     </row>
     <row r="139" ht="21">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>137</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" ht="21">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>138</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" ht="21">
-      <c r="A141" s="9" t="s">
+      <c r="A141" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142" ht="21">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="143" ht="21">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" ht="21">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" ht="21">
-      <c r="A145" s="9" t="s">
+      <c r="A145" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" ht="21">
-      <c r="A146" s="9" t="s">
+      <c r="A146" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" ht="21">
-      <c r="A147" s="9" t="s">
+      <c r="A147" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148" ht="21">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>146</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="149" ht="21">
-      <c r="A149" s="9" t="s">
+      <c r="A149" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" ht="21">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" ht="21">
-      <c r="A151" s="9" t="s">
+      <c r="A151" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" ht="21">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" ht="21">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>151</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" ht="21">
-      <c r="A154" s="9" t="s">
+      <c r="A154" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155" ht="21">
-      <c r="A155" s="9" t="s">
+      <c r="A155" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="156" ht="21">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>154</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" ht="21">
-      <c r="A157" s="9" t="s">
+      <c r="A157" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>155</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" ht="21">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" ht="21">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160" ht="21">
-      <c r="A160" s="9" t="s">
+      <c r="A160" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" ht="21">
-      <c r="A161" s="9" t="s">
+      <c r="A161" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" ht="21">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" ht="21">
-      <c r="A163" s="9" t="s">
+      <c r="A163" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" ht="21">
-      <c r="A164" s="9" t="s">
+      <c r="A164" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" ht="21">
-      <c r="A165" s="9" t="s">
+      <c r="A165" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" ht="21">
-      <c r="A166" s="9" t="s">
+      <c r="A166" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" ht="21">
-      <c r="A167" s="9" t="s">
+      <c r="A167" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" ht="21">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>166</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" ht="21">
-      <c r="A169" s="9" t="s">
+      <c r="A169" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>167</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170" ht="21">
-      <c r="A170" s="9" t="s">
+      <c r="A170" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>168</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" ht="21">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="172" ht="21">
-      <c r="A172" s="9" t="s">
+      <c r="A172" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>170</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" ht="21">
-      <c r="A173" s="9" t="s">
+      <c r="A173" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>171</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" ht="21">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" ht="21">
-      <c r="B176" s="8"/>
+      <c r="B176" s="9"/>
       <c r="C176" s="7"/>
     </row>
     <row r="177" ht="21">
@@ -3868,7 +3870,7 @@
         <v>174</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" ht="21">
@@ -3879,7 +3881,7 @@
         <v>175</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="179" ht="21">
@@ -3890,7 +3892,7 @@
         <v>176</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" ht="21">
@@ -3901,7 +3903,7 @@
         <v>177</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" ht="21">
@@ -3912,7 +3914,7 @@
         <v>178</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" ht="21">
@@ -3923,7 +3925,7 @@
         <v>179</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" ht="21">
@@ -3934,7 +3936,7 @@
         <v>180</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" ht="21">
@@ -3945,7 +3947,7 @@
         <v>181</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" ht="21">
@@ -3956,7 +3958,7 @@
         <v>182</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" ht="21">
@@ -3967,7 +3969,7 @@
         <v>183</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" ht="21">
@@ -3978,7 +3980,7 @@
         <v>184</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188" ht="21">
@@ -3989,7 +3991,7 @@
         <v>185</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189" ht="21">
@@ -4000,7 +4002,7 @@
         <v>186</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190" ht="21">
@@ -4011,7 +4013,7 @@
         <v>187</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" ht="21">
@@ -4022,7 +4024,7 @@
         <v>188</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192" ht="21">
@@ -4033,7 +4035,7 @@
         <v>189</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193" ht="21">
@@ -4044,7 +4046,7 @@
         <v>190</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" ht="21">
@@ -4055,7 +4057,7 @@
         <v>191</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" ht="21">
@@ -4066,7 +4068,7 @@
         <v>192</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196" ht="21">
@@ -4077,7 +4079,7 @@
         <v>193</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" ht="21">
@@ -4088,7 +4090,7 @@
         <v>194</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" ht="21">
@@ -4099,7 +4101,7 @@
         <v>195</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" ht="21">
@@ -4110,7 +4112,7 @@
         <v>196</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" ht="21">
@@ -4121,7 +4123,7 @@
         <v>197</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201" ht="21">
@@ -4132,7 +4134,7 @@
         <v>198</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" ht="21">
@@ -4143,7 +4145,7 @@
         <v>199</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" ht="21">
@@ -4154,7 +4156,7 @@
         <v>200</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="204" ht="21">
@@ -4165,7 +4167,7 @@
         <v>201</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="205" ht="21">
@@ -4176,7 +4178,7 @@
         <v>202</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206" ht="21">
@@ -4187,7 +4189,7 @@
         <v>203</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" ht="21">
@@ -4198,7 +4200,7 @@
         <v>204</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="208" ht="21">
@@ -4209,7 +4211,7 @@
         <v>205</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="209" ht="21">
@@ -4220,7 +4222,7 @@
         <v>206</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="210" ht="21">
@@ -4231,7 +4233,7 @@
         <v>207</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" ht="21">
@@ -4242,17 +4244,17 @@
         <v>208</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" ht="21">
-      <c r="A212" s="9"/>
-      <c r="B212" s="8"/>
+      <c r="A212" s="10"/>
+      <c r="B212" s="9"/>
       <c r="C212" s="7"/>
     </row>
     <row r="213" ht="21">
-      <c r="A213" s="9"/>
-      <c r="B213" s="8"/>
+      <c r="A213" s="10"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="7"/>
     </row>
     <row r="214" ht="21">
@@ -4263,7 +4265,7 @@
         <v>210</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" ht="21">
@@ -4274,7 +4276,7 @@
         <v>211</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" ht="21">
@@ -4285,7 +4287,7 @@
         <v>212</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" ht="21">
@@ -4296,7 +4298,7 @@
         <v>213</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" ht="21">
@@ -4307,7 +4309,7 @@
         <v>214</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" ht="21">
@@ -4318,18 +4320,18 @@
         <v>215</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" ht="21">
       <c r="A220" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="11" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" ht="21">
@@ -4340,7 +4342,7 @@
         <v>217</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" ht="21">
@@ -4351,7 +4353,7 @@
         <v>218</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="223" ht="21">
@@ -4362,7 +4364,7 @@
         <v>219</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224" ht="21">
@@ -4373,7 +4375,7 @@
         <v>220</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" ht="21">
@@ -4384,7 +4386,7 @@
         <v>221</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226" ht="21">
@@ -4395,7 +4397,7 @@
         <v>222</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" ht="21">
@@ -4406,7 +4408,7 @@
         <v>223</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="228" ht="21">
@@ -4417,7 +4419,7 @@
         <v>224</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="229" ht="21">
@@ -4428,7 +4430,7 @@
         <v>225</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230" ht="21">
@@ -4439,7 +4441,7 @@
         <v>226</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231" ht="21">
@@ -4450,7 +4452,7 @@
         <v>227</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232" ht="21">
@@ -4461,7 +4463,7 @@
         <v>228</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="233" ht="21">
@@ -4472,7 +4474,7 @@
         <v>229</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="234" ht="21">
@@ -4483,7 +4485,7 @@
         <v>230</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="235" ht="21">
@@ -4494,15 +4496,15 @@
         <v>231</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236" ht="21">
-      <c r="B236" s="8"/>
+      <c r="B236" s="9"/>
       <c r="C236" s="7"/>
     </row>
     <row r="237" ht="21">
-      <c r="B237" s="8"/>
+      <c r="B237" s="9"/>
       <c r="C237" s="7"/>
     </row>
     <row r="238" ht="21">
@@ -4513,7 +4515,7 @@
         <v>233</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239" ht="21">
@@ -4524,7 +4526,7 @@
         <v>234</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="240" ht="21">
@@ -4535,7 +4537,7 @@
         <v>235</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" ht="21">
@@ -4546,7 +4548,7 @@
         <v>236</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="242" ht="21">
@@ -4557,7 +4559,7 @@
         <v>237</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243" ht="21">
@@ -4568,7 +4570,7 @@
         <v>238</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="244" ht="21">
@@ -4579,7 +4581,7 @@
         <v>239</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" ht="21">
@@ -4590,7 +4592,7 @@
         <v>240</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" ht="21">
@@ -4601,7 +4603,7 @@
         <v>241</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" ht="21">
@@ -4612,7 +4614,7 @@
         <v>242</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="248" ht="21">
@@ -4623,7 +4625,7 @@
         <v>243</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" ht="21">
@@ -4634,7 +4636,7 @@
         <v>244</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250" ht="21">
@@ -4645,7 +4647,7 @@
         <v>245</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251" ht="21">
@@ -4656,7 +4658,7 @@
         <v>246</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="252" ht="21">
@@ -4667,7 +4669,7 @@
         <v>247</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253" ht="21">
@@ -4678,7 +4680,7 @@
         <v>248</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" ht="21">
@@ -4689,7 +4691,7 @@
         <v>249</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" ht="21">
@@ -4700,7 +4702,7 @@
         <v>250</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="256" ht="21">
@@ -4711,7 +4713,7 @@
         <v>251</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="257" ht="21">
@@ -4722,7 +4724,7 @@
         <v>252</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258" ht="21">
@@ -4733,7 +4735,7 @@
         <v>253</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259" ht="21">
@@ -4744,7 +4746,7 @@
         <v>254</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" ht="21">
@@ -4755,7 +4757,7 @@
         <v>255</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="261" ht="21">
@@ -4766,7 +4768,7 @@
         <v>256</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" ht="21">
@@ -4777,7 +4779,7 @@
         <v>257</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" ht="21">
@@ -4788,7 +4790,7 @@
         <v>258</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264" ht="21">
@@ -4799,7 +4801,7 @@
         <v>259</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265" ht="21">
@@ -4810,7 +4812,7 @@
         <v>260</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="266" ht="21">
@@ -4821,7 +4823,7 @@
         <v>261</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267" ht="21">
@@ -4832,7 +4834,7 @@
         <v>262</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="268" ht="21">
@@ -4843,7 +4845,7 @@
         <v>263</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269" ht="21">
@@ -4854,7 +4856,7 @@
         <v>264</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" ht="21">
@@ -4865,7 +4867,7 @@
         <v>265</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" ht="21">
@@ -4876,7 +4878,7 @@
         <v>89</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272" ht="21">
@@ -4887,15 +4889,15 @@
         <v>266</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="273" ht="21">
-      <c r="B273" s="8"/>
+      <c r="B273" s="9"/>
       <c r="C273" s="7"/>
     </row>
     <row r="274" ht="21">
-      <c r="B274" s="8"/>
+      <c r="B274" s="9"/>
       <c r="C274" s="7"/>
     </row>
     <row r="275" ht="21">
@@ -4906,7 +4908,7 @@
         <v>268</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276" ht="21">
@@ -4917,7 +4919,7 @@
         <v>269</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277" ht="21">
@@ -4928,7 +4930,7 @@
         <v>270</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278" ht="21">
@@ -4939,7 +4941,7 @@
         <v>271</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="279" ht="21">
@@ -4950,7 +4952,7 @@
         <v>272</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280" ht="21">
@@ -4961,7 +4963,7 @@
         <v>273</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281" ht="21">
@@ -4972,7 +4974,7 @@
         <v>274</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282" ht="21">
@@ -4983,7 +4985,7 @@
         <v>275</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="283" ht="21">
@@ -4994,7 +4996,7 @@
         <v>276</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284" ht="21">
@@ -5005,7 +5007,7 @@
         <v>277</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="285" ht="21">
@@ -5016,7 +5018,7 @@
         <v>278</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286" ht="21">
@@ -5027,7 +5029,7 @@
         <v>279</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="287" ht="21">
@@ -5038,7 +5040,7 @@
         <v>280</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="288" ht="21">
@@ -5049,7 +5051,7 @@
         <v>281</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="289" ht="21">
@@ -5060,7 +5062,7 @@
         <v>282</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="290" ht="21">
@@ -5071,7 +5073,7 @@
         <v>283</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="291" ht="21">
@@ -5082,7 +5084,7 @@
         <v>284</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="292" ht="21">
@@ -5093,7 +5095,7 @@
         <v>285</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="293" ht="21">
@@ -5104,15 +5106,15 @@
         <v>286</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="294" ht="21">
-      <c r="B294" s="8"/>
+      <c r="B294" s="9"/>
       <c r="C294" s="7"/>
     </row>
     <row r="295" ht="21">
-      <c r="B295" s="8"/>
+      <c r="B295" s="9"/>
       <c r="C295" s="7"/>
     </row>
     <row r="296" ht="21">
@@ -5123,7 +5125,7 @@
         <v>288</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="297" ht="21">
@@ -5134,7 +5136,7 @@
         <v>289</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="298" ht="21">
@@ -5145,7 +5147,7 @@
         <v>290</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="299" ht="21">
@@ -5156,7 +5158,7 @@
         <v>291</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="300" ht="21">
@@ -5167,7 +5169,7 @@
         <v>292</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301" ht="21">
@@ -5178,7 +5180,7 @@
         <v>293</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="302" ht="21">
@@ -5189,7 +5191,7 @@
         <v>294</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303" ht="21">
@@ -5200,7 +5202,7 @@
         <v>295</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="304" ht="21">
@@ -5211,7 +5213,7 @@
         <v>296</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="305" ht="21">
@@ -5222,7 +5224,7 @@
         <v>297</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306" ht="21">
@@ -5233,7 +5235,7 @@
         <v>298</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="307" ht="21">
@@ -5244,7 +5246,7 @@
         <v>299</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="308" ht="21">
@@ -5255,18 +5257,18 @@
         <v>300</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" ht="21">
       <c r="A309" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B309" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C309" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="310" ht="21">
@@ -5277,7 +5279,7 @@
         <v>302</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="311" ht="21">
@@ -5288,7 +5290,7 @@
         <v>303</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="312" ht="21">
@@ -5299,7 +5301,7 @@
         <v>304</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="313" ht="21">
@@ -5310,7 +5312,7 @@
         <v>305</v>
       </c>
       <c r="C313" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="314" ht="21">
@@ -5321,7 +5323,7 @@
         <v>306</v>
       </c>
       <c r="C314" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315" ht="21">
@@ -5332,7 +5334,7 @@
         <v>307</v>
       </c>
       <c r="C315" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="316" ht="21">
@@ -5343,7 +5345,7 @@
         <v>308</v>
       </c>
       <c r="C316" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="317" ht="21">
@@ -5354,7 +5356,7 @@
         <v>309</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="318" ht="21">
@@ -5365,7 +5367,7 @@
         <v>310</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="319" ht="21">
@@ -5376,7 +5378,7 @@
         <v>311</v>
       </c>
       <c r="C319" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="320" ht="21">
@@ -5387,7 +5389,7 @@
         <v>312</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="321" ht="21">
@@ -5398,7 +5400,7 @@
         <v>313</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="322" ht="21">
@@ -5409,7 +5411,7 @@
         <v>314</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="323" ht="21">
@@ -5420,7 +5422,7 @@
         <v>315</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="324" ht="21">
@@ -5431,7 +5433,7 @@
         <v>316</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="325" ht="21">
@@ -5442,7 +5444,7 @@
         <v>317</v>
       </c>
       <c r="C325" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="326" ht="21">
@@ -5453,7 +5455,7 @@
         <v>318</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327" ht="21">
@@ -5464,7 +5466,7 @@
         <v>319</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="328" ht="21">
@@ -5475,7 +5477,7 @@
         <v>320</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="329" ht="21">
@@ -5486,7 +5488,7 @@
         <v>321</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330" ht="21">
@@ -5497,7 +5499,7 @@
         <v>322</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="331" ht="21">
@@ -5508,7 +5510,7 @@
         <v>323</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="332" ht="21">
@@ -5519,7 +5521,7 @@
         <v>324</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="333" ht="21">
@@ -5530,787 +5532,787 @@
         <v>325</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="334" ht="21">
-      <c r="B334" s="8"/>
+      <c r="B334" s="9"/>
       <c r="C334" s="7"/>
     </row>
     <row r="335" ht="21">
-      <c r="B335" s="8"/>
+      <c r="B335" s="9"/>
       <c r="C335" s="7"/>
     </row>
     <row r="336" ht="21">
-      <c r="A336" s="9" t="s">
+      <c r="A336" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B336" s="6" t="s">
         <v>327</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="337" ht="21">
-      <c r="A337" s="9" t="s">
+      <c r="A337" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>328</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="338" ht="21">
-      <c r="A338" s="9" t="s">
+      <c r="A338" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>329</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="339" ht="21">
-      <c r="A339" s="9" t="s">
+      <c r="A339" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>330</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="340" ht="21">
-      <c r="A340" s="9" t="s">
+      <c r="A340" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>331</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="341" ht="21">
-      <c r="A341" s="9" t="s">
+      <c r="A341" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B341" s="6" t="s">
         <v>332</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342" ht="21">
-      <c r="A342" s="9" t="s">
+      <c r="A342" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B342" s="6" t="s">
         <v>333</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="343" ht="21">
-      <c r="A343" s="9" t="s">
+      <c r="A343" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B343" s="6" t="s">
         <v>334</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="344" ht="21">
-      <c r="A344" s="9" t="s">
+      <c r="A344" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B344" s="10" t="s">
+      <c r="B344" s="11" t="s">
         <v>335</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345" ht="21">
-      <c r="A345" s="9" t="s">
+      <c r="A345" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B345" s="6" t="s">
         <v>336</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="346" ht="21">
-      <c r="A346" s="9" t="s">
+      <c r="A346" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>337</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="347" ht="21">
-      <c r="A347" s="9" t="s">
+      <c r="A347" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>338</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="348" ht="21">
-      <c r="A348" s="9" t="s">
+      <c r="A348" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>339</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="349" ht="21">
-      <c r="A349" s="9" t="s">
+      <c r="A349" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>340</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="350" ht="21">
-      <c r="A350" s="9" t="s">
+      <c r="A350" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>341</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="351" ht="21">
-      <c r="A351" s="9" t="s">
+      <c r="A351" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>342</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352" ht="21">
-      <c r="A352" s="9" t="s">
+      <c r="A352" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>343</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="353" ht="21">
-      <c r="A353" s="9" t="s">
+      <c r="A353" s="10" t="s">
         <v>326</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>344</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="354" ht="21">
-      <c r="B354" s="8"/>
+      <c r="B354" s="9"/>
       <c r="C354" s="7"/>
     </row>
     <row r="355" ht="21">
-      <c r="B355" s="8"/>
+      <c r="B355" s="9"/>
       <c r="C355" s="7"/>
     </row>
     <row r="356" ht="21">
-      <c r="A356" s="9" t="s">
+      <c r="A356" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>346</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="357" ht="21">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B357" s="6" t="s">
         <v>347</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="358" ht="21">
-      <c r="A358" s="9" t="s">
+      <c r="A358" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B358" s="6" t="s">
         <v>348</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="359" ht="21">
-      <c r="A359" s="9" t="s">
+      <c r="A359" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B359" s="6" t="s">
         <v>349</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="360" ht="21">
-      <c r="A360" s="9" t="s">
+      <c r="A360" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B360" s="6" t="s">
         <v>350</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="361" ht="21">
-      <c r="A361" s="9" t="s">
+      <c r="A361" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>351</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="362" ht="21">
-      <c r="A362" s="9" t="s">
+      <c r="A362" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B362" s="6" t="s">
         <v>352</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="363" ht="21">
-      <c r="A363" s="9" t="s">
+      <c r="A363" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>353</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="364" ht="21">
-      <c r="A364" s="9" t="s">
+      <c r="A364" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B364" s="6" t="s">
         <v>354</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="365" ht="21">
-      <c r="A365" s="9" t="s">
+      <c r="A365" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>355</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="366" ht="21">
-      <c r="A366" s="9" t="s">
+      <c r="A366" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B366" s="6" t="s">
         <v>356</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="367" ht="21">
-      <c r="A367" s="9" t="s">
+      <c r="A367" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>357</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="368" ht="21">
-      <c r="A368" s="9" t="s">
+      <c r="A368" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B368" s="6" t="s">
         <v>358</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="369" ht="21">
-      <c r="A369" s="9" t="s">
+      <c r="A369" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>359</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="370" ht="21">
-      <c r="A370" s="9" t="s">
+      <c r="A370" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B370" s="6" t="s">
         <v>360</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="371" ht="21">
-      <c r="A371" s="9" t="s">
+      <c r="A371" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>361</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="372" ht="21">
-      <c r="A372" s="9" t="s">
+      <c r="A372" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B372" s="6" t="s">
         <v>362</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="373" ht="21">
-      <c r="A373" s="9" t="s">
+      <c r="A373" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B373" s="6" t="s">
         <v>363</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="374" ht="21">
-      <c r="A374" s="9" t="s">
+      <c r="A374" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B374" s="6" t="s">
         <v>364</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="375" ht="21">
-      <c r="A375" s="9" t="s">
+      <c r="A375" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B375" s="6" t="s">
         <v>365</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="376" ht="21">
-      <c r="A376" s="9" t="s">
+      <c r="A376" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B376" s="6" t="s">
         <v>366</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="377" ht="21">
-      <c r="A377" s="9" t="s">
+      <c r="A377" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>367</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="378" ht="21">
-      <c r="A378" s="9" t="s">
+      <c r="A378" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B378" s="6" t="s">
         <v>368</v>
       </c>
       <c r="C378" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="379" ht="21">
-      <c r="A379" s="9" t="s">
+      <c r="A379" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B379" s="6" t="s">
         <v>369</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="380" ht="21">
-      <c r="A380" s="9" t="s">
+      <c r="A380" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B380" s="6" t="s">
         <v>370</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381" ht="21">
-      <c r="A381" s="9" t="s">
+      <c r="A381" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>371</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="382" ht="21">
-      <c r="A382" s="9" t="s">
+      <c r="A382" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>372</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="383" ht="21">
-      <c r="A383" s="9" t="s">
+      <c r="A383" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>373</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="384" ht="21">
-      <c r="A384" s="9" t="s">
+      <c r="A384" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>374</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="385" ht="21">
-      <c r="A385" s="9" t="s">
+      <c r="A385" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B385" s="6" t="s">
         <v>375</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="386" ht="21">
-      <c r="A386" s="9" t="s">
+      <c r="A386" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B386" s="6" t="s">
         <v>376</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="387" ht="21">
-      <c r="A387" s="9" t="s">
+      <c r="A387" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>377</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="388" ht="21">
-      <c r="A388" s="9" t="s">
+      <c r="A388" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B388" s="6" t="s">
         <v>378</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="389" ht="21">
-      <c r="A389" s="9" t="s">
+      <c r="A389" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>379</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="390" ht="21">
-      <c r="A390" s="9" t="s">
+      <c r="A390" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>379</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="391" ht="21">
-      <c r="A391" s="9" t="s">
+      <c r="A391" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B391" s="6" t="s">
         <v>380</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="392" ht="21">
-      <c r="A392" s="9" t="s">
+      <c r="A392" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>381</v>
       </c>
       <c r="C392" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="393" ht="21">
-      <c r="A393" s="9" t="s">
+      <c r="A393" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>382</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="394" ht="21">
-      <c r="A394" s="9" t="s">
+      <c r="A394" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>383</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="395" ht="21">
-      <c r="A395" s="9" t="s">
+      <c r="A395" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>384</v>
       </c>
       <c r="C395" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="396" ht="21">
-      <c r="A396" s="9" t="s">
+      <c r="A396" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>385</v>
       </c>
       <c r="C396" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="397" ht="21">
-      <c r="A397" s="9" t="s">
+      <c r="A397" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>386</v>
       </c>
       <c r="C397" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="398" ht="21">
-      <c r="A398" s="9" t="s">
+      <c r="A398" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B398" s="6" t="s">
         <v>387</v>
       </c>
       <c r="C398" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="399" ht="21">
-      <c r="A399" s="9" t="s">
+      <c r="A399" s="10" t="s">
         <v>345</v>
       </c>
       <c r="B399" s="6" t="s">
         <v>388</v>
       </c>
       <c r="C399" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="400" ht="21">
-      <c r="B400" s="8"/>
+      <c r="B400" s="9"/>
       <c r="C400" s="7"/>
     </row>
     <row r="401" ht="21">
-      <c r="B401" s="8"/>
+      <c r="B401" s="9"/>
       <c r="C401" s="7"/>
     </row>
     <row r="402" ht="21">
-      <c r="A402" s="9" t="s">
+      <c r="A402" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B402" s="6" t="s">
         <v>390</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="403" ht="21">
-      <c r="A403" s="9" t="s">
+      <c r="A403" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B403" s="6" t="s">
         <v>391</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="404" ht="21">
-      <c r="A404" s="9" t="s">
+      <c r="A404" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B404" s="6" t="s">
         <v>392</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="405" ht="21">
-      <c r="A405" s="9" t="s">
+      <c r="A405" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B405" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="406" ht="21">
-      <c r="A406" s="9" t="s">
+      <c r="A406" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B406" s="6" t="s">
         <v>393</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="407" ht="21">
-      <c r="A407" s="9" t="s">
+      <c r="A407" s="10" t="s">
         <v>389</v>
       </c>
       <c r="B407" s="6" t="s">
         <v>394</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="408" ht="21">
-      <c r="B408" s="8"/>
+      <c r="B408" s="9"/>
       <c r="C408" s="7"/>
     </row>
     <row r="409" ht="21">
-      <c r="B409" s="8"/>
+      <c r="B409" s="9"/>
       <c r="C409" s="7"/>
     </row>
     <row r="410" ht="21">
@@ -6321,7 +6323,7 @@
         <v>396</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="411" ht="21">
@@ -6332,7 +6334,7 @@
         <v>397</v>
       </c>
       <c r="C411" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="412" ht="21">
@@ -6343,7 +6345,7 @@
         <v>398</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="413" ht="21">
@@ -6354,7 +6356,7 @@
         <v>399</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="414" ht="21">
@@ -6365,7 +6367,7 @@
         <v>400</v>
       </c>
       <c r="C414" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="415" ht="21">
@@ -6376,7 +6378,7 @@
         <v>401</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="416" ht="21">
@@ -6387,7 +6389,7 @@
         <v>402</v>
       </c>
       <c r="C416" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="417" ht="21">
@@ -6398,7 +6400,7 @@
         <v>275</v>
       </c>
       <c r="C417" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="418" ht="21">
@@ -6409,7 +6411,7 @@
         <v>403</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="419" ht="21">
@@ -6420,7 +6422,7 @@
         <v>404</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="420" ht="21">
@@ -6431,7 +6433,7 @@
         <v>405</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="421" ht="21">
@@ -6442,7 +6444,7 @@
         <v>406</v>
       </c>
       <c r="C421" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="422" ht="21">
@@ -6453,7 +6455,7 @@
         <v>407</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="423" ht="21">
@@ -6464,7 +6466,7 @@
         <v>408</v>
       </c>
       <c r="C423" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="424" ht="21">
@@ -6475,7 +6477,7 @@
         <v>409</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="425" ht="21">
@@ -6486,7 +6488,7 @@
         <v>410</v>
       </c>
       <c r="C425" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="426" ht="21">
@@ -6497,7 +6499,7 @@
         <v>411</v>
       </c>
       <c r="C426" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="427" ht="21">
@@ -6508,7 +6510,7 @@
         <v>412</v>
       </c>
       <c r="C427" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="428" ht="21">
@@ -6519,7 +6521,7 @@
         <v>413</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="429" ht="21">
@@ -6530,7 +6532,7 @@
         <v>414</v>
       </c>
       <c r="C429" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="430" ht="21">
@@ -6541,7 +6543,7 @@
         <v>415</v>
       </c>
       <c r="C430" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="431" ht="21">
@@ -6552,7 +6554,7 @@
         <v>416</v>
       </c>
       <c r="C431" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="432" ht="21">
@@ -6563,7 +6565,7 @@
         <v>417</v>
       </c>
       <c r="C432" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="433" ht="21">
@@ -6574,7 +6576,7 @@
         <v>418</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="434" ht="21">
@@ -6585,7 +6587,7 @@
         <v>419</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="435" ht="21">
@@ -6596,7 +6598,7 @@
         <v>420</v>
       </c>
       <c r="C435" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="436" ht="21">
@@ -6607,7 +6609,7 @@
         <v>421</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="437" ht="21">
@@ -6618,7 +6620,7 @@
         <v>422</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="438" ht="21">
@@ -6629,7 +6631,7 @@
         <v>423</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="439" ht="21">
@@ -6640,7 +6642,7 @@
         <v>424</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="440" ht="21">
@@ -6651,7 +6653,7 @@
         <v>425</v>
       </c>
       <c r="C440" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="441" ht="21">
@@ -6662,7 +6664,7 @@
         <v>426</v>
       </c>
       <c r="C441" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="442" ht="21">
@@ -6673,7 +6675,7 @@
         <v>427</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="443" ht="21">
@@ -6684,7 +6686,7 @@
         <v>428</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="444" ht="21">
@@ -6695,7 +6697,7 @@
         <v>429</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="445" ht="21">
@@ -6706,7 +6708,7 @@
         <v>430</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="446" ht="21">
@@ -6717,7 +6719,7 @@
         <v>431</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="447" ht="21">
@@ -6728,7 +6730,7 @@
         <v>432</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="448" ht="21">
@@ -6739,7 +6741,7 @@
         <v>433</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="449" ht="21">
@@ -6750,7 +6752,7 @@
         <v>434</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="450" ht="21">
@@ -6761,7 +6763,7 @@
         <v>435</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="451" ht="21">
@@ -6772,7 +6774,7 @@
         <v>436</v>
       </c>
       <c r="C451" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="452" ht="21">
@@ -6783,7 +6785,7 @@
         <v>437</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="453" ht="21">
@@ -6794,7 +6796,7 @@
         <v>438</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="454" ht="21">
@@ -6805,7 +6807,7 @@
         <v>439</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="455" ht="21">
@@ -6816,7 +6818,7 @@
         <v>440</v>
       </c>
       <c r="C455" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="456" ht="21">
@@ -6827,7 +6829,7 @@
         <v>441</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="457" ht="21">
@@ -6838,7 +6840,7 @@
         <v>442</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="458" ht="21">
@@ -6849,7 +6851,7 @@
         <v>443</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="459" ht="21">
@@ -6860,7 +6862,7 @@
         <v>444</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="460" ht="21">
@@ -6871,7 +6873,7 @@
         <v>445</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="461" ht="21">
@@ -6882,7 +6884,7 @@
         <v>446</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="462" ht="21">
@@ -6893,7 +6895,7 @@
         <v>447</v>
       </c>
       <c r="C462" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="463" ht="21">
@@ -6904,7 +6906,7 @@
         <v>448</v>
       </c>
       <c r="C463" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="464" ht="21">
@@ -6915,7 +6917,7 @@
         <v>449</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="465" ht="21">
@@ -6926,7 +6928,7 @@
         <v>450</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="466" ht="21">
@@ -6937,7 +6939,7 @@
         <v>451</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="467" ht="21">
@@ -6948,7 +6950,7 @@
         <v>452</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="468" ht="21">
@@ -6959,7 +6961,7 @@
         <v>453</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="469" ht="21">
@@ -6970,16 +6972,16 @@
         <v>454</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="470" ht="21">
-      <c r="B470" s="8"/>
+      <c r="B470" s="9"/>
       <c r="C470" s="7"/>
     </row>
     <row r="471" ht="21">
-      <c r="A471" s="9"/>
-      <c r="B471" s="8"/>
+      <c r="A471" s="10"/>
+      <c r="B471" s="9"/>
       <c r="C471" s="7"/>
     </row>
     <row r="472" ht="21">
@@ -6990,7 +6992,7 @@
         <v>456</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="473" ht="21">
@@ -7001,7 +7003,7 @@
         <v>457</v>
       </c>
       <c r="C473" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="474" ht="21">
@@ -7012,7 +7014,7 @@
         <v>458</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="475" ht="21">
@@ -7023,7 +7025,7 @@
         <v>459</v>
       </c>
       <c r="C475" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="476" ht="21">
@@ -7034,7 +7036,7 @@
         <v>460</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="477" ht="21">
@@ -7045,7 +7047,7 @@
         <v>461</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="478" ht="21">
@@ -7056,7 +7058,7 @@
         <v>462</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="479" ht="21">
@@ -7067,7 +7069,7 @@
         <v>463</v>
       </c>
       <c r="C479" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="480" ht="21">
@@ -7078,7 +7080,7 @@
         <v>464</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="481" ht="21">
@@ -7089,7 +7091,7 @@
         <v>465</v>
       </c>
       <c r="C481" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
